--- a/output_data/charts/capacity-Lancaster-1600000US3941720.xlsx
+++ b/output_data/charts/capacity-Lancaster-1600000US3941720.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,10 +513,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7240</c:v>
+                  <c:v>7.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -859,16 +859,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12500</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -877,31 +877,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5900</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26100</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31700</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72195</c:v>
+                  <c:v>72.19499999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>126250</c:v>
+                  <c:v>126.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>108360</c:v>
+                  <c:v>108.36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45850</c:v>
+                  <c:v>45.84999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>12500</v>
+        <v>12.5</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>5900</v>
+        <v>5.9</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>26100</v>
+        <v>26.1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>31700</v>
+        <v>31.7</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>72195</v>
+        <v>72.19499999999999</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>126250</v>
+        <v>126.25</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>7240</v>
+        <v>7.24</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>108360</v>
+        <v>108.36</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>45850</v>
+        <v>45.84999999999999</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Lancaster-1600000US3941720.xlsx
+++ b/output_data/charts/capacity-Lancaster-1600000US3941720.xlsx
@@ -901,7 +901,7 @@
                   <c:v>108.36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.84999999999999</c:v>
+                  <c:v>124.775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>45.84999999999999</v>
+        <v>124.775</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
